--- a/docs/Gestion/Gantt.xlsx
+++ b/docs/Gestion/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUT\S1\TUT\PTUTS1A2\docs\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361850C-5D38-4260-AC02-6DD53F871BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92159FFA-9345-4F21-ACEC-33B0D000D505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
+    <workbookView xWindow="6960" yWindow="615" windowWidth="20910" windowHeight="11835" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Semaines:</t>
   </si>
@@ -610,36 +610,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -663,25 +639,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,16 +659,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA0F6FC-DDC7-4F9D-988F-0370E9C47430}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,913 +1037,908 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <v>44099</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <v>44106</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="3">
         <v>44113</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="3">
         <v>44120</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="3">
         <v>44127</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="3">
         <v>44134</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="3">
         <v>44141</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="3">
         <v>44148</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="3">
         <v>44155</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="3">
         <v>44162</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="3">
         <v>44169</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="3">
         <v>44176</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="3">
         <v>44183</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="3">
         <v>44190</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="3">
         <v>44197</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="3">
         <v>44204</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="4">
         <v>44211</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="5">
         <v>40</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="6">
         <v>41</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="6">
         <v>42</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="6">
         <v>43</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="6">
         <v>44</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="6">
         <v>45</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="6">
         <v>46</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="6">
         <v>47</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="6">
         <v>48</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="6">
         <v>49</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="6">
         <v>50</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="6">
         <v>51</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="6">
         <v>52</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="6">
         <v>53</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="6">
         <v>1</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="6">
         <v>2</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="37">
+      <c r="F4" s="32"/>
+      <c r="G4" s="28">
         <v>1</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="19"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="39">
+      <c r="F5" s="34"/>
+      <c r="G5" s="29">
         <v>1</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="24"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="39">
+      <c r="F6" s="34"/>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="16"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="16"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="29">
         <v>0</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="24"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="16"/>
+    </row>
+    <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43"/>
+      <c r="C10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="39">
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="16"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="29">
         <v>0</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="24"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="45" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="39">
+      <c r="F13" s="34"/>
+      <c r="G13" s="29">
         <v>0</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="24"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="45" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="39">
+      <c r="F14" s="34"/>
+      <c r="G14" s="29">
         <v>0</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
-    </row>
-    <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="45" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="43"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="24"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="39">
+      <c r="F15" s="34"/>
+      <c r="G15" s="29">
         <v>0</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="24"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="39">
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="16"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="29">
         <v>0</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="39">
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="43"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="29">
         <v>0</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="24"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="39">
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="16"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="43"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="16"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="16"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="16"/>
+    </row>
+    <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="29">
         <v>0</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="39">
+      <c r="H22" s="17"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="16"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="43"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="29">
         <v>0</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="24"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="39">
+      <c r="H23" s="17"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="16"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="43"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="29">
         <v>0</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="24"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="39">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="24"/>
-    </row>
-    <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="39">
-        <v>1</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="24"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="39">
-        <v>1</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="24"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="39">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="24"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="39">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="24"/>
-    </row>
-    <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="39">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="24"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="39">
-        <v>0</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="24"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="39">
-        <v>0</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="24"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="16"/>
     </row>
     <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="45" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="29">
         <v>0</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="24"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="40"/>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="45" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="29">
         <v>0</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="24"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="16"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="41"/>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="49" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="42">
+      <c r="F27" s="39"/>
+      <c r="G27" s="30">
         <v>0</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="35"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="27"/>
     </row>
     <row r="28" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="E2:F3"/>
@@ -1953,6 +1949,15 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Gestion/Gantt.xlsx
+++ b/docs/Gestion/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUT\S1\TUT\PTUTS1A2\docs\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92159FFA-9345-4F21-ACEC-33B0D000D505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1A45FA-EB94-472C-8893-5F245F86FA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="615" windowWidth="20910" windowHeight="11835" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
   <si>
     <t>Semaines:</t>
   </si>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +190,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -610,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -647,41 +654,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,10 +691,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA0F6FC-DDC7-4F9D-988F-0370E9C47430}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,16 +1046,16 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="37" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3">
@@ -1102,14 +1111,14 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="45"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="5">
         <v>40</v>
       </c>
@@ -1163,13 +1172,13 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="31" t="s">
         <v>8</v>
       </c>
@@ -1196,11 +1205,11 @@
       <c r="X4" s="11"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="33" t="s">
         <v>8</v>
       </c>
@@ -1229,10 +1238,10 @@
       <c r="X5" s="16"/>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -1264,8 +1273,8 @@
       <c r="X6" s="16"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="34" t="s">
         <v>10</v>
       </c>
@@ -1295,8 +1304,8 @@
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="34" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1321,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="36" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="15"/>
@@ -1328,8 +1337,8 @@
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1357,7 @@
       <c r="M9" s="35"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="36" t="s">
         <v>40</v>
       </c>
       <c r="Q9" s="15"/>
@@ -1361,8 +1370,8 @@
       <c r="X9" s="16"/>
     </row>
     <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -1396,8 +1405,8 @@
       <c r="X10" s="16"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
@@ -1417,18 +1426,26 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
+      <c r="Q11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="16"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="34" t="s">
         <v>19</v>
       </c>
@@ -1448,18 +1465,26 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="Q12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="16"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="34" t="s">
         <v>20</v>
       </c>
@@ -1479,18 +1504,26 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
+      <c r="Q13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="16"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="34" t="s">
         <v>21</v>
       </c>
@@ -1510,18 +1543,26 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
+      <c r="Q14" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="34" t="s">
         <v>41</v>
       </c>
@@ -1541,18 +1582,26 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
+      <c r="Q15" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="16"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
@@ -1571,17 +1620,23 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
+      <c r="R16" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="16"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="34" t="s">
         <v>23</v>
       </c>
@@ -1599,20 +1654,28 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="Q17" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="16"/>
     </row>
     <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="39" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -1644,8 +1707,8 @@
       <c r="X18" s="16"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="34" t="s">
         <v>27</v>
       </c>
@@ -1675,8 +1738,8 @@
       <c r="X19" s="16"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="34" t="s">
         <v>28</v>
       </c>
@@ -1708,8 +1771,8 @@
       <c r="X20" s="16"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="34" t="s">
         <v>29</v>
       </c>
@@ -1729,29 +1792,41 @@
       <c r="L21" s="15"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="O21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="57" t="s">
+        <v>40</v>
+      </c>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="16"/>
     </row>
     <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="29">
         <v>0</v>
       </c>
@@ -1764,18 +1839,26 @@
       <c r="N22" s="15"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="Q22" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="57" t="s">
+        <v>40</v>
+      </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="16"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="34" t="s">
         <v>34</v>
       </c>
@@ -1798,17 +1881,23 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="R23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="57" t="s">
+        <v>40</v>
+      </c>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="16"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="34" t="s">
         <v>35</v>
       </c>
@@ -1830,21 +1919,25 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
+      <c r="S24" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="57" t="s">
+        <v>40</v>
+      </c>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="16"/>
     </row>
     <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="37"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="33" t="s">
         <v>17</v>
       </c>
@@ -1873,11 +1966,11 @@
       <c r="X25" s="16"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="36" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="33" t="s">
         <v>8</v>
       </c>
@@ -1906,15 +1999,15 @@
       <c r="X26" s="16"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="38" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="30">
         <v>0</v>
       </c>
@@ -1939,6 +2032,15 @@
     <row r="28" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="E2:F3"/>
@@ -1949,15 +2051,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Gestion/Gantt.xlsx
+++ b/docs/Gestion/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUT\S1\TUT\PTUTS1A2\docs\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\PTUTS1A2\docs\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1A45FA-EB94-472C-8893-5F245F86FA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E58C18-36D4-4AFC-80E7-789DE4D264B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Mise en page</t>
   </si>
   <si>
-    <t>Relecture et Correction</t>
-  </si>
-  <si>
     <t>Site Web</t>
   </si>
   <si>
@@ -155,10 +152,13 @@
     <t>Entrainements</t>
   </si>
   <si>
-    <t>========</t>
-  </si>
-  <si>
     <t>Conclusion</t>
+  </si>
+  <si>
+    <t>======</t>
+  </si>
+  <si>
+    <t>Relecture</t>
   </si>
 </sst>
 </file>
@@ -655,23 +655,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,29 +711,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,31 +1031,38 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9" max="23" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="47" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3">
@@ -1111,14 +1118,14 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="5">
         <v>40</v>
       </c>
@@ -1172,13 +1179,13 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="31" t="s">
         <v>8</v>
       </c>
@@ -1205,11 +1212,11 @@
       <c r="X4" s="11"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="33" t="s">
         <v>8</v>
       </c>
@@ -1238,10 +1245,10 @@
       <c r="X5" s="16"/>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -1273,8 +1280,8 @@
       <c r="X6" s="16"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="34" t="s">
         <v>10</v>
       </c>
@@ -1304,8 +1311,8 @@
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="34" t="s">
         <v>11</v>
       </c>
@@ -1337,8 +1344,8 @@
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -1370,8 +1377,8 @@
       <c r="X9" s="16"/>
     </row>
     <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="45" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -1405,8 +1412,8 @@
       <c r="X10" s="16"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
@@ -1426,16 +1433,16 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="56" t="s">
+      <c r="Q11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U11" s="15"/>
@@ -1444,8 +1451,8 @@
       <c r="X11" s="16"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="34" t="s">
         <v>19</v>
       </c>
@@ -1465,16 +1472,16 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="56" t="s">
+      <c r="Q12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U12" s="15"/>
@@ -1483,8 +1490,8 @@
       <c r="X12" s="16"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="34" t="s">
         <v>20</v>
       </c>
@@ -1504,16 +1511,16 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="56" t="s">
+      <c r="Q13" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U13" s="15"/>
@@ -1522,8 +1529,8 @@
       <c r="X13" s="16"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="34" t="s">
         <v>21</v>
       </c>
@@ -1543,16 +1550,16 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="56" t="s">
+      <c r="Q14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="15"/>
@@ -1561,10 +1568,10 @@
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>17</v>
@@ -1582,16 +1589,16 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="56" t="s">
+      <c r="Q15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U15" s="15"/>
@@ -1600,8 +1607,8 @@
       <c r="X15" s="16"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
@@ -1620,13 +1627,13 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="56" t="s">
+      <c r="R16" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U16" s="15"/>
@@ -1635,10 +1642,10 @@
       <c r="X16" s="16"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="34" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
@@ -1654,16 +1661,16 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="56" t="s">
+      <c r="Q17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U17" s="15"/>
@@ -1672,17 +1679,17 @@
       <c r="X17" s="16"/>
     </row>
     <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="D18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="29">
@@ -1707,13 +1714,13 @@
       <c r="X18" s="16"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="29">
@@ -1738,16 +1745,16 @@
       <c r="X19" s="16"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="29">
         <v>1</v>
@@ -1771,16 +1778,16 @@
       <c r="X20" s="16"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="29">
         <v>0.25</v>
@@ -1792,22 +1799,22 @@
       <c r="L21" s="15"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="57" t="s">
+      <c r="O21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="38" t="s">
         <v>40</v>
       </c>
       <c r="U21" s="15"/>
@@ -1816,17 +1823,17 @@
       <c r="X21" s="16"/>
     </row>
     <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
-      <c r="C22" s="39" t="s">
-        <v>30</v>
+      <c r="B22" s="46"/>
+      <c r="C22" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="29">
         <v>0</v>
       </c>
@@ -1839,16 +1846,16 @@
       <c r="N22" s="15"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
-      <c r="Q22" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="57" t="s">
+      <c r="Q22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="15"/>
@@ -1857,16 +1864,16 @@
       <c r="X22" s="16"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="29">
         <v>0</v>
@@ -1881,13 +1888,13 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="T23" s="57" t="s">
+      <c r="R23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="38" t="s">
         <v>40</v>
       </c>
       <c r="U23" s="15"/>
@@ -1896,13 +1903,13 @@
       <c r="X23" s="16"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="29">
@@ -1919,10 +1926,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="T24" s="57" t="s">
+      <c r="S24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="38" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="15"/>
@@ -1931,13 +1938,13 @@
       <c r="X24" s="16"/>
     </row>
     <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="33" t="s">
         <v>17</v>
       </c>
@@ -1966,16 +1973,16 @@
       <c r="X25" s="16"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="54"/>
-      <c r="C26" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="50"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="40"/>
       <c r="E26" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="29">
         <v>0</v>
@@ -1999,15 +2006,15 @@
       <c r="X26" s="16"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="53"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="42"/>
       <c r="G27" s="30">
         <v>0</v>
       </c>
@@ -2032,15 +2039,6 @@
     <row r="28" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="E2:F3"/>
@@ -2051,6 +2049,15 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Gestion/Gantt.xlsx
+++ b/docs/Gestion/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\PTUTS1A2\docs\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E58C18-36D4-4AFC-80E7-789DE4D264B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F7915-E84C-495D-89ED-135A33E77E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
   <si>
     <t>Semaines:</t>
   </si>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -657,41 +664,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -711,9 +700,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,7 +1040,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,16 +1062,16 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="49" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="39" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3">
@@ -1118,14 +1127,14 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="5">
         <v>40</v>
       </c>
@@ -1179,13 +1188,13 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="31" t="s">
         <v>8</v>
       </c>
@@ -1212,11 +1221,11 @@
       <c r="X4" s="11"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="33" t="s">
         <v>8</v>
       </c>
@@ -1245,10 +1254,10 @@
       <c r="X5" s="16"/>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -1280,8 +1289,8 @@
       <c r="X6" s="16"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="34" t="s">
         <v>10</v>
       </c>
@@ -1311,8 +1320,8 @@
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="34" t="s">
         <v>11</v>
       </c>
@@ -1344,8 +1353,8 @@
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -1377,8 +1386,8 @@
       <c r="X9" s="16"/>
     </row>
     <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -1412,8 +1421,8 @@
       <c r="X10" s="16"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
@@ -1451,8 +1460,8 @@
       <c r="X11" s="16"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="34" t="s">
         <v>19</v>
       </c>
@@ -1490,8 +1499,8 @@
       <c r="X12" s="16"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="34" t="s">
         <v>20</v>
       </c>
@@ -1529,8 +1538,8 @@
       <c r="X13" s="16"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="34" t="s">
         <v>21</v>
       </c>
@@ -1568,8 +1577,8 @@
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="34" t="s">
         <v>39</v>
       </c>
@@ -1607,8 +1616,8 @@
       <c r="X15" s="16"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
@@ -1642,8 +1651,8 @@
       <c r="X16" s="16"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="34" t="s">
         <v>41</v>
       </c>
@@ -1679,10 +1688,10 @@
       <c r="X17" s="16"/>
     </row>
     <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -1714,8 +1723,8 @@
       <c r="X18" s="16"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="34" t="s">
         <v>26</v>
       </c>
@@ -1745,8 +1754,8 @@
       <c r="X19" s="16"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="34" t="s">
         <v>27</v>
       </c>
@@ -1778,8 +1787,8 @@
       <c r="X20" s="16"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="34" t="s">
         <v>28</v>
       </c>
@@ -1823,17 +1832,17 @@
       <c r="X21" s="16"/>
     </row>
     <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="45" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="29">
         <v>0</v>
       </c>
@@ -1864,8 +1873,8 @@
       <c r="X22" s="16"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="34" t="s">
         <v>33</v>
       </c>
@@ -1903,8 +1912,8 @@
       <c r="X23" s="16"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="45"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="34" t="s">
         <v>34</v>
       </c>
@@ -1938,13 +1947,13 @@
       <c r="X24" s="16"/>
     </row>
     <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="33" t="s">
         <v>17</v>
       </c>
@@ -1966,18 +1975,24 @@
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="59" t="s">
+        <v>40</v>
+      </c>
       <c r="X25" s="16"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="33" t="s">
         <v>8</v>
       </c>
@@ -1999,22 +2014,30 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
+      <c r="T26" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="59" t="s">
+        <v>40</v>
+      </c>
       <c r="X26" s="16"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="44"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="41" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="30">
         <v>0</v>
       </c>
@@ -2039,6 +2062,15 @@
     <row r="28" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="E2:F3"/>
@@ -2049,15 +2081,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Gestion/Gantt.xlsx
+++ b/docs/Gestion/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\PTUTS1A2\docs\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echos\Documents\GitHub\PTUTS1A2\docs\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F7915-E84C-495D-89ED-135A33E77E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DB127-BA95-46A5-8D9D-BC8C782BEFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A13C3DC5-E04F-4898-97B1-355632F1AC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -664,23 +664,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,29 +720,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,7 +1040,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,28 +1050,28 @@
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="42" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="49" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3">
@@ -1127,14 +1127,14 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="5">
         <v>40</v>
       </c>
@@ -1188,13 +1188,13 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="31" t="s">
         <v>8</v>
       </c>
@@ -1221,11 +1221,11 @@
       <c r="X4" s="11"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="33" t="s">
         <v>8</v>
       </c>
@@ -1254,10 +1254,10 @@
       <c r="X5" s="16"/>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -1289,8 +1289,8 @@
       <c r="X6" s="16"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="34" t="s">
         <v>10</v>
       </c>
@@ -1320,8 +1320,8 @@
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="34" t="s">
         <v>11</v>
       </c>
@@ -1353,8 +1353,8 @@
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
@@ -1386,8 +1386,8 @@
       <c r="X9" s="16"/>
     </row>
     <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="47" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -1421,8 +1421,8 @@
       <c r="X10" s="16"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
@@ -1460,8 +1460,8 @@
       <c r="X11" s="16"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="34" t="s">
         <v>19</v>
       </c>
@@ -1499,8 +1499,8 @@
       <c r="X12" s="16"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="34" t="s">
         <v>20</v>
       </c>
@@ -1538,8 +1538,8 @@
       <c r="X13" s="16"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="34" t="s">
         <v>21</v>
       </c>
@@ -1577,8 +1577,8 @@
       <c r="X14" s="16"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="34" t="s">
         <v>39</v>
       </c>
@@ -1616,8 +1616,8 @@
       <c r="X15" s="16"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
@@ -1651,8 +1651,8 @@
       <c r="X16" s="16"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="34" t="s">
         <v>41</v>
       </c>
@@ -1688,10 +1688,10 @@
       <c r="X17" s="16"/>
     </row>
     <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -1723,8 +1723,8 @@
       <c r="X18" s="16"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="34" t="s">
         <v>26</v>
       </c>
@@ -1754,8 +1754,8 @@
       <c r="X19" s="16"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="34" t="s">
         <v>27</v>
       </c>
@@ -1787,8 +1787,8 @@
       <c r="X20" s="16"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="34" t="s">
         <v>28</v>
       </c>
@@ -1832,17 +1832,17 @@
       <c r="X21" s="16"/>
     </row>
     <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="41" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="47" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="29">
         <v>0</v>
       </c>
@@ -1873,8 +1873,8 @@
       <c r="X22" s="16"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="34" t="s">
         <v>33</v>
       </c>
@@ -1912,8 +1912,8 @@
       <c r="X23" s="16"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="34" t="s">
         <v>34</v>
       </c>
@@ -1947,13 +1947,13 @@
       <c r="X24" s="16"/>
     </row>
     <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="33" t="s">
         <v>17</v>
       </c>
@@ -1975,24 +1975,24 @@
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="V25" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W25" s="59" t="s">
+      <c r="T25" s="39"/>
+      <c r="U25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="40" t="s">
         <v>40</v>
       </c>
       <c r="X25" s="16"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
-      <c r="C26" s="51" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="33" t="s">
         <v>8</v>
       </c>
@@ -2014,30 +2014,30 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
-      <c r="T26" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="U26" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="V26" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="W26" s="59" t="s">
+      <c r="T26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="40" t="s">
         <v>40</v>
       </c>
       <c r="X26" s="16"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="55"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="30">
         <v>0</v>
       </c>
@@ -2062,15 +2062,6 @@
     <row r="28" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="E2:F3"/>
@@ -2081,6 +2072,15 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
